--- a/low_quality_PSNR_30.xlsx
+++ b/low_quality_PSNR_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuche\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\jqwqj\image_compressor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD70221-2EC6-4A01-BC8E-5A006C2E9D31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E4E9B-8C8E-4FB9-B89D-5C548B8900C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5520" xr2:uid="{8C499704-4468-4ADB-B6FC-739A05230A42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>file_name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>jpeg_size</t>
+  </si>
+  <si>
+    <t>file_size(bytes)</t>
   </si>
 </sst>
 </file>
@@ -131,10 +134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,303 +482,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C15EB-3845-4E08-ABC7-85D4E6B469E5}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C4" s="1">
         <v>386</v>
       </c>
-      <c r="C4" s="3">
-        <f>B4/62</f>
+      <c r="D4" s="2">
+        <f>C4/62</f>
         <v>6.225806451612903</v>
       </c>
-      <c r="D4" s="3">
-        <f>B4/85</f>
+      <c r="E4" s="2">
+        <f>C4/85</f>
         <v>4.5411764705882351</v>
       </c>
-      <c r="E4" s="3">
-        <f>B4/107</f>
+      <c r="F4" s="2">
+        <f>C4/107</f>
         <v>3.6074766355140189</v>
       </c>
-      <c r="F4" s="3">
-        <f>B4/93</f>
+      <c r="G4" s="2">
+        <f>C4/93</f>
         <v>4.150537634408602</v>
       </c>
-      <c r="G4" s="3">
-        <f>B4/81</f>
+      <c r="H4" s="2">
+        <f>C4/81</f>
         <v>4.7654320987654319</v>
       </c>
-      <c r="H4" s="3">
-        <f>B4/102</f>
+      <c r="I4" s="2">
+        <f>C4/102</f>
         <v>3.784313725490196</v>
       </c>
-      <c r="I4" s="3">
-        <f>B4/89</f>
+      <c r="J4" s="2">
+        <f>C4/89</f>
         <v>4.3370786516853936</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C5" s="1">
         <v>386</v>
       </c>
-      <c r="C5" s="3">
-        <f>B5/9</f>
+      <c r="D5" s="2">
+        <f>C5/9</f>
         <v>42.888888888888886</v>
       </c>
-      <c r="D5" s="3">
-        <f>B5/20</f>
+      <c r="E5" s="2">
+        <f>C5/20</f>
         <v>19.3</v>
       </c>
-      <c r="E5" s="3">
-        <f>B5/19</f>
+      <c r="F5" s="2">
+        <f>C5/19</f>
         <v>20.315789473684209</v>
       </c>
-      <c r="F5" s="3">
-        <f>B5/25</f>
+      <c r="G5" s="2">
+        <f>C5/25</f>
         <v>15.44</v>
       </c>
-      <c r="G5" s="3">
-        <f>B5/15</f>
+      <c r="H5" s="2">
+        <f>C5/15</f>
         <v>25.733333333333334</v>
       </c>
-      <c r="H5" s="3">
-        <f>B5/18</f>
+      <c r="I5" s="2">
+        <f>C5/18</f>
         <v>21.444444444444443</v>
       </c>
-      <c r="I5" s="3">
-        <f>B5/20</f>
+      <c r="J5" s="2">
+        <f>C5/20</f>
         <v>19.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C6" s="1">
         <v>386</v>
       </c>
-      <c r="C6" s="3">
-        <f>B6/8</f>
+      <c r="D6" s="2">
+        <f>C6/8</f>
         <v>48.25</v>
       </c>
-      <c r="D6" s="3">
-        <f>B6/19</f>
+      <c r="E6" s="2">
+        <f>C6/19</f>
         <v>20.315789473684209</v>
       </c>
-      <c r="E6" s="3">
-        <f>B6/17</f>
+      <c r="F6" s="2">
+        <f>C6/17</f>
         <v>22.705882352941178</v>
       </c>
-      <c r="F6" s="3">
-        <f>B6/24</f>
+      <c r="G6" s="2">
+        <f>C6/24</f>
         <v>16.083333333333332</v>
       </c>
-      <c r="G6" s="3">
-        <f>B6/14</f>
+      <c r="H6" s="2">
+        <f>C6/14</f>
         <v>27.571428571428573</v>
       </c>
-      <c r="H6" s="3">
-        <f>B6/16</f>
+      <c r="I6" s="2">
+        <f>C6/16</f>
         <v>24.125</v>
       </c>
-      <c r="I6" s="3">
-        <f>B6/18</f>
+      <c r="J6" s="2">
+        <f>C6/18</f>
         <v>21.444444444444443</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C7" s="1">
         <v>386</v>
       </c>
-      <c r="C7" s="3">
-        <f>B7/31</f>
+      <c r="D7" s="2">
+        <f>C7/31</f>
         <v>12.451612903225806</v>
       </c>
-      <c r="D7" s="3">
-        <f>B7/43</f>
+      <c r="E7" s="2">
+        <f>C7/43</f>
         <v>8.9767441860465116</v>
       </c>
-      <c r="E7" s="3">
-        <f>B7/54</f>
+      <c r="F7" s="2">
+        <f>C7/54</f>
         <v>7.1481481481481479</v>
       </c>
-      <c r="F7" s="3">
-        <f>B7/50</f>
+      <c r="G7" s="2">
+        <f>C7/50</f>
         <v>7.72</v>
       </c>
-      <c r="G7" s="3">
-        <f>B7/39</f>
+      <c r="H7" s="2">
+        <f>C7/39</f>
         <v>9.8974358974358978</v>
       </c>
-      <c r="H7" s="3">
-        <f>B7/50</f>
+      <c r="I7" s="2">
+        <f>C7/50</f>
         <v>7.72</v>
       </c>
-      <c r="I7" s="3">
-        <f>B7/46</f>
+      <c r="J7" s="2">
+        <f>C7/46</f>
         <v>8.3913043478260878</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C8" s="1">
         <v>386</v>
       </c>
-      <c r="C8" s="3">
-        <f>B8/23</f>
+      <c r="D8" s="2">
+        <f>C8/23</f>
         <v>16.782608695652176</v>
       </c>
-      <c r="D8" s="3">
-        <f>B8/35</f>
+      <c r="E8" s="2">
+        <f>C8/35</f>
         <v>11.028571428571428</v>
       </c>
-      <c r="E8" s="3">
-        <f>B8/40</f>
+      <c r="F8" s="2">
+        <f>C8/40</f>
         <v>9.65</v>
       </c>
-      <c r="F8" s="3">
-        <f>B8/42</f>
+      <c r="G8" s="2">
+        <f>C8/42</f>
         <v>9.1904761904761898</v>
       </c>
-      <c r="G8" s="3">
-        <f>B8/31</f>
+      <c r="H8" s="2">
+        <f>C8/31</f>
         <v>12.451612903225806</v>
       </c>
-      <c r="H8" s="3">
-        <f>B8/39</f>
+      <c r="I8" s="2">
+        <f>C8/39</f>
         <v>9.8974358974358978</v>
       </c>
-      <c r="I8" s="3">
-        <f>B8/37</f>
+      <c r="J8" s="2">
+        <f>C8/37</f>
         <v>10.432432432432432</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C9" s="1">
         <v>386</v>
       </c>
-      <c r="C9" s="3">
-        <f>B9/17</f>
+      <c r="D9" s="2">
+        <f>C9/17</f>
         <v>22.705882352941178</v>
       </c>
-      <c r="D9" s="3">
-        <f>B9/29</f>
+      <c r="E9" s="2">
+        <f>C9/29</f>
         <v>13.310344827586206</v>
       </c>
-      <c r="E9" s="3">
-        <f>B9/34</f>
+      <c r="F9" s="2">
+        <f>C9/34</f>
         <v>11.352941176470589</v>
       </c>
-      <c r="F9" s="3">
-        <f>B9/35</f>
+      <c r="G9" s="2">
+        <f>C9/35</f>
         <v>11.028571428571428</v>
       </c>
-      <c r="G9" s="3">
-        <f>B9/25</f>
+      <c r="H9" s="2">
+        <f>C9/25</f>
         <v>15.44</v>
       </c>
-      <c r="H9" s="3">
-        <f>B9/31</f>
+      <c r="I9" s="2">
+        <f>C9/31</f>
         <v>12.451612903225806</v>
       </c>
-      <c r="I9" s="3">
-        <f>B9/30</f>
+      <c r="J9" s="2">
+        <f>C9/30</f>
         <v>12.866666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
